--- a/public/files/test.xlsx
+++ b/public/files/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17805" activeTab="1"/>
+    <workbookView windowHeight="17805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>source</t>
   </si>
@@ -46,114 +46,6 @@
   <si>
     <t>他的知识气息无疑是特殊的。</t>
   </si>
-  <si>
-    <t>Using the average international standard in most North American and European universities, Vinh's academic record deserves a professorship.</t>
-  </si>
-  <si>
-    <t>使用大多数北美和欧洲大学的平均国际标准，Vinh的学术成绩值得教授。</t>
-  </si>
-  <si>
-    <t>I have a few joint research works with him.</t>
-  </si>
-  <si>
-    <t>我和他有一些联合研究工作。</t>
-  </si>
-  <si>
-    <t>Out of those joint publications, Vinh had contributed significantly to the papers.</t>
-  </si>
-  <si>
-    <t>在这些联合出版物中，Vinh对论文作出了重大贡献。</t>
-  </si>
-  <si>
-    <t>Vinh's work reflects a very meticulous and scholarly approach to research.</t>
-  </si>
-  <si>
-    <t>Vinh的工作反映了一种非常细致和学术的研究方法。</t>
-  </si>
-  <si>
-    <t>They also demonstrate his ability to simplify complicated economic problems into simple insights.</t>
-  </si>
-  <si>
-    <t>他们还展示了将复杂的经济问题简化为简单见解的能力。</t>
-  </si>
-  <si>
-    <t>Most of his works integrate strong intuition with strong application to the real world.</t>
-  </si>
-  <si>
-    <t>他的大多数作品都将强烈的直觉与对现实世界的强烈应用相结合。</t>
-  </si>
-  <si>
-    <t>It is pretty evident from his applied research record that he is a good applied economist.</t>
-  </si>
-  <si>
-    <t>从他的应用研究记录中可以明显看出，他是一位优秀的应用经济学家。</t>
-  </si>
-  <si>
-    <t>At the University of Macau, he is ranked highest in research output by the Department and well-liked by his colleagues and students from what I know.</t>
-  </si>
-  <si>
-    <t>在澳门大学，他在该系的研究成果中排名最高，并且得到我所知的同事和学生的喜爱。</t>
-  </si>
-  <si>
-    <t>He was rated highly in teaching evaluations.</t>
-  </si>
-  <si>
-    <t>他在教学评估方面受到高度评价。</t>
-  </si>
-  <si>
-    <t>His citizenship is first rate.</t>
-  </si>
-  <si>
-    <t>他的公民身份是一流的。</t>
-  </si>
-  <si>
-    <t>I find him extremely intelligent, with a strong intuition in economics and econometric work.</t>
-  </si>
-  <si>
-    <t>我发现他非常聪明，对经济学和计量经济学工作有着强烈的直觉。</t>
-  </si>
-  <si>
-    <t>I am confident that he will be a successful scholar and teacher.</t>
-  </si>
-  <si>
-    <t>我相信他将成为一名成功的学者和老师。</t>
-  </si>
-  <si>
-    <t>I am pleased to recommend him strongly without reservation.</t>
-  </si>
-  <si>
-    <t>我很高兴毫无保留地强烈推荐他。</t>
-  </si>
-  <si>
-    <t>I hope my evaluation will help you to come to a decision regarding the eligibility of Professor Vinh Quoc Trieu Dang.</t>
-  </si>
-  <si>
-    <t>我希望我的评估能帮助你做出关于Vinh Quoc Trieu Dang教授资格的决定。</t>
-  </si>
-  <si>
-    <t>If you have further questions, please do not hesitate to communicate.</t>
-  </si>
-  <si>
-    <t>如果您还有其他问题，请随时与我们联系。</t>
-  </si>
-  <si>
-    <t>APAEM, University of Macau</t>
-  </si>
-  <si>
-    <t>APAEM，澳门大学</t>
-  </si>
-  <si>
-    <t>University of Macau, Taipa "Macau, China</t>
-  </si>
-  <si>
-    <t>澳门大学，凼仔“澳门，中国</t>
-  </si>
-  <si>
-    <t>Email: chanken93@gmail.com; sychan@umac.mo; chanken@mcmaster.ca</t>
-  </si>
-  <si>
-    <t>电子邮件：chanken93@gmail.com; sychan@umac.mo; chanken@mcmaster.ca</t>
-  </si>
 </sst>
 </file>
 
@@ -193,73 +85,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -269,7 +94,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,14 +177,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -299,32 +184,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,11 +483,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +502,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -644,17 +531,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,13 +1035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="4" t="s">
@@ -1195,186 +1087,6 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" ht="243.75" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" ht="68.25" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" ht="135.75" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" ht="135.75" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" ht="149.25" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" ht="135.75" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="149.25" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="243.75" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="81.75" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="54.75" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" ht="135.75" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" ht="108.75" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" ht="108.75" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" ht="189.75" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" ht="122.25" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" ht="41.25" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" ht="68.25" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" ht="134.25" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1386,7 +1098,7 @@
   <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/public/files/test.xlsx
+++ b/public/files/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5449,10 +5449,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -5483,13 +5483,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5504,9 +5497,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5526,45 +5550,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5572,30 +5560,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5611,16 +5575,52 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5641,19 +5641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5665,7 +5659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5683,6 +5689,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5695,19 +5761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5725,19 +5785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5749,55 +5797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5809,19 +5809,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5857,6 +5857,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5872,17 +5911,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5910,50 +5954,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5962,10 +5962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5974,16 +5974,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5992,115 +5992,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6443,7 +6443,7 @@
   <dimension ref="A1:D608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C608"/>
+      <selection activeCell="A6" sqref="A6:P608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
